--- a/medicine/Sexualité et sexologie/La_Playmate_des_singes/La_Playmate_des_singes.xlsx
+++ b/medicine/Sexualité et sexologie/La_Playmate_des_singes/La_Playmate_des_singes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Playmate des singes (Play-mate of the Apes) est un vidéofilm érotique américain réalisé par John Bacchus, sorti en 2002.
 C'est une parodie érotique du film La Planète des singes de Tim Burton sorti un an plus tôt en 2001.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un futur lointain, la sexy et intrépide astronaute américaine Gaylor et ses compagnes lesbiennes s'écrasent sur une planète sombre et désolée.
 Rapidement, elles se débarrassent de leur combinaison spatiale, se retrouvent dans les bras l'une de l'autre et n'ayant plus beaucoup d'espoir de survie, se laissent aller aux plaisirs lesbiens.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Play-Mate of the Apes
 Réalisateur : John Bacchus
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Misty Mundae : commandante Gaylor
 Anoushka Garin : lieutenante Pushkintucushkin
